--- a/biology/Botanique/Coniophora_puteana/Coniophora_puteana.xlsx
+++ b/biology/Botanique/Coniophora_puteana/Coniophora_puteana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coniophora puteana
 Coniophora puteana, de son nom vernaculaire, le champignon  des caves, aussi appelé coniophore bosselé, est un champignon lignivore saprophyte et ubiquiste responsable de la pourriture cubique.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La partie végétative du coniophore des caves est un mycélium composé d'hyphes qui se développent dans les cavités du bois. En surface, les hyphes s'agglomèrent ou s'entremêlent et forment soit un amas cotonneux d’abord de couleur jaune-blanc devenant brun à brun foncé avec l’âge, soit des rhizomorphes bruns qui tournent au noir en vieillissant.
 Le sporophore a une peau mince de couleur jaune brun, formant une croûte, très fragile à l’état sec. Zone de croissance de couleur jaune blanchâtre à jaune brun.
